--- a/public/assets/documents/import_categories.xlsx
+++ b/public/assets/documents/import_categories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Angular\PointOfSale\pos\public\assets\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71EBA9B-40CE-4C86-AAC5-F8D3B15E8271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128D5BD4-74BF-401B-B89B-C1B11C5BDB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CBCE6D3F-1D5A-4533-A10F-F2817AB789AC}"/>
   </bookViews>
@@ -35,12 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>category_name</t>
-  </si>
-  <si>
-    <t>importinggg</t>
   </si>
 </sst>
 </file>
@@ -392,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652EBCDE-B851-4BD0-99D0-3B2751D1F1AA}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -405,11 +402,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
